--- a/Document/Dev_Estimation_Bappy.xlsx
+++ b/Document/Dev_Estimation_Bappy.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,85 +475,113 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
@@ -561,7 +589,7 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B2:B15)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
